--- a/team_specific_matrix/George Washington_A.xlsx
+++ b/team_specific_matrix/George Washington_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2226890756302521</v>
+        <v>0.2090592334494774</v>
       </c>
       <c r="C2">
-        <v>0.5294117647058824</v>
+        <v>0.554006968641115</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02521008403361345</v>
+        <v>0.02090592334494774</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1764705882352941</v>
+        <v>0.1742160278745645</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.04621848739495799</v>
+        <v>0.04181184668989547</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007874015748031496</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03937007874015748</v>
+        <v>0.04216867469879518</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7480314960629921</v>
+        <v>0.7590361445783133</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2047244094488189</v>
+        <v>0.1746987951807229</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05555555555555555</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6944444444444444</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.3023255813953488</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05303030303030303</v>
+        <v>0.04848484848484848</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007575757575757576</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03787878787878788</v>
+        <v>0.04242424242424243</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2803030303030303</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.007575757575757576</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1590909090909091</v>
+        <v>0.1575757575757576</v>
       </c>
       <c r="R6">
-        <v>0.07575757575757576</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="S6">
-        <v>0.3787878787878788</v>
+        <v>0.3757575757575757</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1025641025641026</v>
+        <v>0.1164383561643836</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04273504273504274</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0170940170940171</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1025641025641026</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1709401709401709</v>
+        <v>0.1712328767123288</v>
       </c>
       <c r="R7">
-        <v>0.1538461538461539</v>
+        <v>0.1301369863013699</v>
       </c>
       <c r="S7">
-        <v>0.4102564102564102</v>
+        <v>0.4178082191780822</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1299435028248588</v>
+        <v>0.1187648456057007</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01129943502824859</v>
+        <v>0.01187648456057007</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05649717514124294</v>
+        <v>0.05463182897862233</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.115819209039548</v>
+        <v>0.1092636579572447</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.005649717514124294</v>
+        <v>0.007125890736342043</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1525423728813559</v>
+        <v>0.159144893111639</v>
       </c>
       <c r="R8">
-        <v>0.1129943502824859</v>
+        <v>0.1211401425178147</v>
       </c>
       <c r="S8">
-        <v>0.4152542372881356</v>
+        <v>0.4180522565320665</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08982035928143713</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005988023952095809</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="E9">
-        <v>0.005988023952095809</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="F9">
-        <v>0.04790419161676647</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08982035928143713</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01796407185628742</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1796407185628743</v>
+        <v>0.1913875598086124</v>
       </c>
       <c r="R9">
-        <v>0.1137724550898204</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="S9">
-        <v>0.4491017964071856</v>
+        <v>0.430622009569378</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1153415453527436</v>
+        <v>0.1107205623901582</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02799552071668533</v>
+        <v>0.02636203866432337</v>
       </c>
       <c r="E10">
-        <v>0.001119820828667413</v>
+        <v>0.001757469244288225</v>
       </c>
       <c r="F10">
-        <v>0.05823068309070549</v>
+        <v>0.05448154657293498</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1041433370660694</v>
+        <v>0.09490333919156414</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0167973124300112</v>
+        <v>0.01757469244288225</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1858902575587906</v>
+        <v>0.1880492091388401</v>
       </c>
       <c r="R10">
-        <v>0.08734602463605823</v>
+        <v>0.09578207381370826</v>
       </c>
       <c r="S10">
-        <v>0.4031354983202687</v>
+        <v>0.4103690685413005</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1401273885350318</v>
+        <v>0.140625</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08280254777070063</v>
+        <v>0.078125</v>
       </c>
       <c r="K11">
-        <v>0.1719745222929936</v>
+        <v>0.171875</v>
       </c>
       <c r="L11">
-        <v>0.6050955414012739</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.005208333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6666666666666666</v>
+        <v>0.7016129032258065</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2254901960784314</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="K12">
-        <v>0.02941176470588235</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="L12">
-        <v>0.06862745098039216</v>
+        <v>0.0564516129032258</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.009803921568627451</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8285714285714286</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1714285714285714</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02013422818791946</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1946308724832215</v>
+        <v>0.1711229946524064</v>
       </c>
       <c r="I15">
-        <v>0.08053691275167785</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J15">
-        <v>0.348993288590604</v>
+        <v>0.3475935828877005</v>
       </c>
       <c r="K15">
-        <v>0.04697986577181208</v>
+        <v>0.0374331550802139</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02013422818791946</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="N15">
-        <v>0.006711409395973154</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="O15">
-        <v>0.09395973154362416</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1879194630872483</v>
+        <v>0.2192513368983957</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0125</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1875</v>
+        <v>0.1791044776119403</v>
       </c>
       <c r="I16">
-        <v>0.0625</v>
+        <v>0.06965174129353234</v>
       </c>
       <c r="J16">
-        <v>0.46875</v>
+        <v>0.4875621890547264</v>
       </c>
       <c r="K16">
-        <v>0.075</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.00625</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04375</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.14375</v>
+        <v>0.1293532338308458</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01724137931034483</v>
+        <v>0.0215633423180593</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1655172413793103</v>
+        <v>0.1644204851752022</v>
       </c>
       <c r="I17">
-        <v>0.1206896551724138</v>
+        <v>0.1078167115902965</v>
       </c>
       <c r="J17">
-        <v>0.4379310344827586</v>
+        <v>0.4555256064690027</v>
       </c>
       <c r="K17">
-        <v>0.05862068965517241</v>
+        <v>0.06199460916442048</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01724137931034483</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04827586206896552</v>
+        <v>0.0431266846361186</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1344827586206896</v>
+        <v>0.1266846361185984</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03012048192771084</v>
+        <v>0.02790697674418605</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2409638554216867</v>
+        <v>0.213953488372093</v>
       </c>
       <c r="I18">
-        <v>0.0963855421686747</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="J18">
-        <v>0.3433734939759036</v>
+        <v>0.3813953488372093</v>
       </c>
       <c r="K18">
-        <v>0.06024096385542169</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01807228915662651</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06024096385542169</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1506024096385542</v>
+        <v>0.1441860465116279</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009278350515463918</v>
+        <v>0.009884678747940691</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2185567010309278</v>
+        <v>0.2075782537067545</v>
       </c>
       <c r="I19">
-        <v>0.09587628865979382</v>
+        <v>0.09637561779242175</v>
       </c>
       <c r="J19">
-        <v>0.3536082474226804</v>
+        <v>0.3682042833607908</v>
       </c>
       <c r="K19">
-        <v>0.08453608247422681</v>
+        <v>0.0815485996705107</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0268041237113402</v>
+        <v>0.02800658978583196</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07010309278350516</v>
+        <v>0.0700164744645799</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1412371134020619</v>
+        <v>0.1383855024711697</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/George Washington_A.xlsx
+++ b/team_specific_matrix/George Washington_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2090592334494774</v>
+        <v>0.2044728434504792</v>
       </c>
       <c r="C2">
-        <v>0.554006968641115</v>
+        <v>0.5654952076677316</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02090592334494774</v>
+        <v>0.01916932907348243</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1742160278745645</v>
+        <v>0.1725239616613418</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.04181184668989547</v>
+        <v>0.03833865814696485</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006024096385542169</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="C3">
-        <v>0.01807228915662651</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04216867469879518</v>
+        <v>0.03763440860215054</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7590361445783133</v>
+        <v>0.7365591397849462</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1746987951807229</v>
+        <v>0.1935483870967742</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04651162790697674</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6511627906976745</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3023255813953488</v>
+        <v>0.2888888888888889</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04848484848484848</v>
+        <v>0.04571428571428571</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006060606060606061</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04242424242424243</v>
+        <v>0.04</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2727272727272727</v>
+        <v>0.2742857142857143</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01212121212121212</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1575757575757576</v>
+        <v>0.16</v>
       </c>
       <c r="R6">
-        <v>0.08484848484848485</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="S6">
-        <v>0.3757575757575757</v>
+        <v>0.3657142857142857</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1164383561643836</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03424657534246575</v>
+        <v>0.03048780487804878</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0273972602739726</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0958904109589041</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.00684931506849315</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1712328767123288</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="R7">
-        <v>0.1301369863013699</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="S7">
-        <v>0.4178082191780822</v>
+        <v>0.4085365853658536</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1187648456057007</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01187648456057007</v>
+        <v>0.01263157894736842</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05463182897862233</v>
+        <v>0.04842105263157895</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1092636579572447</v>
+        <v>0.1115789473684211</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.007125890736342043</v>
+        <v>0.00631578947368421</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.159144893111639</v>
+        <v>0.16</v>
       </c>
       <c r="R8">
-        <v>0.1211401425178147</v>
+        <v>0.12</v>
       </c>
       <c r="S8">
-        <v>0.4180522565320665</v>
+        <v>0.4252631578947368</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1100478468899522</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009569377990430622</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="E9">
-        <v>0.004784688995215311</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="F9">
-        <v>0.04784688995215311</v>
+        <v>0.04219409282700422</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09090909090909091</v>
+        <v>0.0970464135021097</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01435406698564593</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1913875598086124</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="R9">
-        <v>0.1004784688995215</v>
+        <v>0.1054852320675106</v>
       </c>
       <c r="S9">
-        <v>0.430622009569378</v>
+        <v>0.4261603375527426</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1107205623901582</v>
+        <v>0.1112</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02636203866432337</v>
+        <v>0.024</v>
       </c>
       <c r="E10">
-        <v>0.001757469244288225</v>
+        <v>0.0024</v>
       </c>
       <c r="F10">
-        <v>0.05448154657293498</v>
+        <v>0.056</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09490333919156414</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01757469244288225</v>
+        <v>0.0168</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1880492091388401</v>
+        <v>0.1896</v>
       </c>
       <c r="R10">
-        <v>0.09578207381370826</v>
+        <v>0.0936</v>
       </c>
       <c r="S10">
-        <v>0.4103690685413005</v>
+        <v>0.4112</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.140625</v>
+        <v>0.1330275229357798</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.078125</v>
+        <v>0.08256880733944955</v>
       </c>
       <c r="K11">
-        <v>0.171875</v>
+        <v>0.1697247706422018</v>
       </c>
       <c r="L11">
-        <v>0.6041666666666666</v>
+        <v>0.6100917431192661</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.005208333333333333</v>
+        <v>0.004587155963302753</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7016129032258065</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2096774193548387</v>
+        <v>0.2071428571428572</v>
       </c>
       <c r="K12">
-        <v>0.02419354838709677</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="L12">
-        <v>0.0564516129032258</v>
+        <v>0.05</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.008064516129032258</v>
+        <v>0.007142857142857143</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7954545454545454</v>
+        <v>0.8125</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02272727272727273</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0160427807486631</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1711229946524064</v>
+        <v>0.1682692307692308</v>
       </c>
       <c r="I15">
-        <v>0.09090909090909091</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="J15">
-        <v>0.3475935828877005</v>
+        <v>0.3509615384615384</v>
       </c>
       <c r="K15">
-        <v>0.0374331550802139</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0160427807486631</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="N15">
-        <v>0.0106951871657754</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="O15">
-        <v>0.09090909090909091</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2192513368983957</v>
+        <v>0.2211538461538461</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009950248756218905</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1791044776119403</v>
+        <v>0.1963470319634703</v>
       </c>
       <c r="I16">
-        <v>0.06965174129353234</v>
+        <v>0.0730593607305936</v>
       </c>
       <c r="J16">
-        <v>0.4875621890547264</v>
+        <v>0.4611872146118721</v>
       </c>
       <c r="K16">
-        <v>0.07462686567164178</v>
+        <v>0.0776255707762557</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.004975124378109453</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04477611940298507</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1293532338308458</v>
+        <v>0.136986301369863</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0215633423180593</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1644204851752022</v>
+        <v>0.1642857142857143</v>
       </c>
       <c r="I17">
-        <v>0.1078167115902965</v>
+        <v>0.1119047619047619</v>
       </c>
       <c r="J17">
-        <v>0.4555256064690027</v>
+        <v>0.4452380952380952</v>
       </c>
       <c r="K17">
-        <v>0.06199460916442048</v>
+        <v>0.07380952380952381</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01886792452830189</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0431266846361186</v>
+        <v>0.04523809523809524</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1266846361185984</v>
+        <v>0.1238095238095238</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02790697674418605</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.213953488372093</v>
+        <v>0.211864406779661</v>
       </c>
       <c r="I18">
-        <v>0.09302325581395349</v>
+        <v>0.09322033898305085</v>
       </c>
       <c r="J18">
-        <v>0.3813953488372093</v>
+        <v>0.3940677966101695</v>
       </c>
       <c r="K18">
-        <v>0.06511627906976744</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01395348837209302</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06046511627906977</v>
+        <v>0.05508474576271186</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1441860465116279</v>
+        <v>0.1398305084745763</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009884678747940691</v>
+        <v>0.009687034277198211</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2075782537067545</v>
+        <v>0.2116244411326378</v>
       </c>
       <c r="I19">
-        <v>0.09637561779242175</v>
+        <v>0.09910581222056632</v>
       </c>
       <c r="J19">
-        <v>0.3682042833607908</v>
+        <v>0.364381520119225</v>
       </c>
       <c r="K19">
-        <v>0.0815485996705107</v>
+        <v>0.08122205663189269</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02800658978583196</v>
+        <v>0.02757078986587183</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0700164744645799</v>
+        <v>0.07004470938897168</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1383855024711697</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/George Washington_A.xlsx
+++ b/team_specific_matrix/George Washington_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2044728434504792</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.5654952076677316</v>
+        <v>0.5723076923076923</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01916932907348243</v>
+        <v>0.01846153846153846</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1725239616613418</v>
+        <v>0.1661538461538462</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.03833865814696485</v>
+        <v>0.04307692307692308</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005376344086021506</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="C3">
-        <v>0.02688172043010753</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03763440860215054</v>
+        <v>0.04102564102564103</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7365591397849462</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1935483870967742</v>
+        <v>0.1897435897435897</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04444444444444445</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2888888888888889</v>
+        <v>0.2978723404255319</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04571428571428571</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01142857142857143</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2742857142857143</v>
+        <v>0.2771739130434783</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01142857142857143</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.16</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="R6">
-        <v>0.09142857142857143</v>
+        <v>0.09239130434782608</v>
       </c>
       <c r="S6">
-        <v>0.3657142857142857</v>
+        <v>0.3641304347826087</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1219512195121951</v>
+        <v>0.125748502994012</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03048780487804878</v>
+        <v>0.02994011976047904</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02439024390243903</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08536585365853659</v>
+        <v>0.08383233532934131</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01829268292682927</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1890243902439024</v>
+        <v>0.1856287425149701</v>
       </c>
       <c r="R7">
-        <v>0.1219512195121951</v>
+        <v>0.1197604790419162</v>
       </c>
       <c r="S7">
-        <v>0.4085365853658536</v>
+        <v>0.4131736526946108</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1157894736842105</v>
+        <v>0.1120162932790224</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01263157894736842</v>
+        <v>0.01221995926680244</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04842105263157895</v>
+        <v>0.05091649694501019</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1115789473684211</v>
+        <v>0.1120162932790224</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.00631578947368421</v>
+        <v>0.006109979633401222</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.16</v>
+        <v>0.1588594704684318</v>
       </c>
       <c r="R8">
-        <v>0.12</v>
+        <v>0.120162932790224</v>
       </c>
       <c r="S8">
-        <v>0.4252631578947368</v>
+        <v>0.4276985743380856</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1012658227848101</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008438818565400843</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="E9">
-        <v>0.004219409282700422</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="F9">
-        <v>0.04219409282700422</v>
+        <v>0.04032258064516129</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0970464135021097</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01265822784810127</v>
+        <v>0.01209677419354839</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2025316455696203</v>
+        <v>0.1975806451612903</v>
       </c>
       <c r="R9">
-        <v>0.1054852320675106</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="S9">
-        <v>0.4261603375527426</v>
+        <v>0.4153225806451613</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1112</v>
+        <v>0.1125776397515528</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.024</v>
+        <v>0.02329192546583851</v>
       </c>
       <c r="E10">
-        <v>0.0024</v>
+        <v>0.002329192546583851</v>
       </c>
       <c r="F10">
-        <v>0.056</v>
+        <v>0.05667701863354038</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09520000000000001</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0168</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1896</v>
+        <v>0.1894409937888199</v>
       </c>
       <c r="R10">
-        <v>0.0936</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="S10">
-        <v>0.4112</v>
+        <v>0.4083850931677019</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1330275229357798</v>
+        <v>0.1377777777777778</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08256880733944955</v>
+        <v>0.08</v>
       </c>
       <c r="K11">
-        <v>0.1697247706422018</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="L11">
-        <v>0.6100917431192661</v>
+        <v>0.6044444444444445</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004587155963302753</v>
+        <v>0.004444444444444444</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7142857142857143</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2071428571428572</v>
+        <v>0.2013888888888889</v>
       </c>
       <c r="K12">
-        <v>0.02142857142857143</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="L12">
-        <v>0.05</v>
+        <v>0.04861111111111111</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.007142857142857143</v>
+        <v>0.006944444444444444</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01442307692307692</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1682692307692308</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="I15">
-        <v>0.08653846153846154</v>
+        <v>0.0892018779342723</v>
       </c>
       <c r="J15">
-        <v>0.3509615384615384</v>
+        <v>0.3568075117370892</v>
       </c>
       <c r="K15">
-        <v>0.03365384615384615</v>
+        <v>0.03286384976525822</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01923076923076923</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="N15">
-        <v>0.009615384615384616</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="O15">
-        <v>0.09615384615384616</v>
+        <v>0.09389671361502347</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2211538461538461</v>
+        <v>0.215962441314554</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0091324200913242</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1963470319634703</v>
+        <v>0.1938325991189427</v>
       </c>
       <c r="I16">
-        <v>0.0730593607305936</v>
+        <v>0.07488986784140969</v>
       </c>
       <c r="J16">
-        <v>0.4611872146118721</v>
+        <v>0.4669603524229075</v>
       </c>
       <c r="K16">
-        <v>0.0776255707762557</v>
+        <v>0.07929515418502203</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0045662100456621</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0410958904109589</v>
+        <v>0.03964757709251102</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.136986301369863</v>
+        <v>0.13215859030837</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01904761904761905</v>
+        <v>0.02093023255813953</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1642857142857143</v>
+        <v>0.1604651162790698</v>
       </c>
       <c r="I17">
-        <v>0.1119047619047619</v>
+        <v>0.113953488372093</v>
       </c>
       <c r="J17">
-        <v>0.4452380952380952</v>
+        <v>0.4488372093023256</v>
       </c>
       <c r="K17">
-        <v>0.07380952380952381</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01666666666666667</v>
+        <v>0.01627906976744186</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04523809523809524</v>
+        <v>0.04418604651162791</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1238095238095238</v>
+        <v>0.1209302325581395</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02542372881355932</v>
+        <v>0.024</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.211864406779661</v>
+        <v>0.212</v>
       </c>
       <c r="I18">
-        <v>0.09322033898305085</v>
+        <v>0.096</v>
       </c>
       <c r="J18">
-        <v>0.3940677966101695</v>
+        <v>0.396</v>
       </c>
       <c r="K18">
-        <v>0.06779661016949153</v>
+        <v>0.068</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01271186440677966</v>
+        <v>0.012</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05508474576271186</v>
+        <v>0.056</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1398305084745763</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009687034277198211</v>
+        <v>0.01016702977487291</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2116244411326378</v>
+        <v>0.2142338416848221</v>
       </c>
       <c r="I19">
-        <v>0.09910581222056632</v>
+        <v>0.1002178649237473</v>
       </c>
       <c r="J19">
-        <v>0.364381520119225</v>
+        <v>0.3631082062454611</v>
       </c>
       <c r="K19">
-        <v>0.08122205663189269</v>
+        <v>0.08061002178649238</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02757078986587183</v>
+        <v>0.02687000726216413</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07004470938897168</v>
+        <v>0.06971677559912855</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1363636363636364</v>
+        <v>0.1350762527233116</v>
       </c>
     </row>
   </sheetData>
